--- a/minecraft.xlsx
+++ b/minecraft.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Documents\CustomLevels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-ipa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9927B0C4-2E92-4371-8FF4-E1E3A5C44552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4965842D-2372-497D-92C5-87DCC9EEE2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="9744" windowHeight="11436" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jailbroken 32" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="297">
   <si>
     <t>Version</t>
   </si>
@@ -916,6 +916,9 @@
   </si>
   <si>
     <t>iOS 8.0</t>
+  </si>
+  <si>
+    <t>iOS 6.0 (32+64)</t>
   </si>
 </sst>
 </file>
@@ -972,12 +975,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2177,17 +2179,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6040E62-BEFF-4190-ADB8-4D63BAE776D8}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C63" sqref="C63:C66"/>
+      <selection pane="topRight" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2861,7 +2863,7 @@
         <v>817031176</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>125</v>
+        <v>296</v>
       </c>
       <c r="D40" t="s">
         <v>220</v>
@@ -2878,7 +2880,7 @@
         <v>817260822</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>125</v>
+        <v>296</v>
       </c>
       <c r="D41" t="s">
         <v>222</v>
@@ -2908,7 +2910,7 @@
       <c r="A43" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43">
         <v>817650262</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -2925,7 +2927,7 @@
       <c r="A44" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44">
         <v>818030579</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2942,7 +2944,7 @@
       <c r="A45" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45">
         <v>818269188</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -2959,7 +2961,7 @@
       <c r="A46" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46">
         <v>818416822</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -2976,7 +2978,7 @@
       <c r="A47" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47">
         <v>818662472</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -2993,7 +2995,7 @@
       <c r="A48" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48">
         <v>818878159</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -3010,7 +3012,7 @@
       <c r="A49" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49">
         <v>818970426</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -3027,7 +3029,7 @@
       <c r="A50" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50">
         <v>819101845</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -3044,7 +3046,7 @@
       <c r="A51" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51">
         <v>819299060</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -3061,7 +3063,7 @@
       <c r="A52" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52">
         <v>819347371</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -3078,7 +3080,7 @@
       <c r="A53" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53">
         <v>819581582</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -3095,7 +3097,7 @@
       <c r="A54" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54">
         <v>819769023</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -3112,7 +3114,7 @@
       <c r="A55" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55">
         <v>819936072</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -3129,7 +3131,7 @@
       <c r="A56" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56">
         <v>820418889</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -3146,7 +3148,7 @@
       <c r="A57" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57">
         <v>820458571</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -3163,7 +3165,7 @@
       <c r="A58" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58">
         <v>820823760</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -3180,7 +3182,7 @@
       <c r="A59" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59">
         <v>821202098</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -3197,7 +3199,7 @@
       <c r="A60" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60">
         <v>821419615</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -3214,7 +3216,7 @@
       <c r="A61" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61">
         <v>821483675</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -3231,7 +3233,7 @@
       <c r="A62" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62">
         <v>821658757</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -3248,7 +3250,7 @@
       <c r="A63" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63">
         <v>821792989</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -3265,7 +3267,7 @@
       <c r="A64" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64">
         <v>821960382</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -3282,7 +3284,7 @@
       <c r="A65" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65">
         <v>822141552</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -3299,7 +3301,7 @@
       <c r="A66" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66">
         <v>822262458</v>
       </c>
       <c r="C66" s="2" t="s">

--- a/minecraft.xlsx
+++ b/minecraft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-ipa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4965842D-2372-497D-92C5-87DCC9EEE2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605EB9B9-F892-4645-BCE3-98A7472BF7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="9744" windowHeight="11436" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jailbroken 32" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="317">
   <si>
     <t>Version</t>
   </si>
@@ -919,6 +919,66 @@
   </si>
   <si>
     <t>iOS 6.0 (32+64)</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1IiXyOrzl7t6CQZNAck1WPQ?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1_RDe-zqxvhSxei_GL3rUcA</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/15u0w5HjeHLauwYw-onfrrA?pwd=1234</t>
+  </si>
+  <si>
+    <t>1.16.0</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/13JJ5lJy_9O7VSPJ3ergI_g?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/11zO9dwM8Y4HFQ4agHTq65g</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/19DvFCECOxnqmJlx8SQThUA</t>
+  </si>
+  <si>
+    <t>iOS 9.0</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1CD7aR_mhED0IlWdbu9Rt5A?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1qyX8ST6GwxPZd0YiLR-baA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pan.baidu.com/s/1fyzXprVO_DCQ9eLggoTGRw?pwd=1234 </t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1XT2l5x9N0IfWQBVxAT05XQ</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/10EgwUbG-E4F1ay1W24ELZA</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1uQnycNaf2kDydoE4uHL54g</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1FO6dGzJhixia0tHwOROwjA</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1NYn2hy6sfPkOKsXFb4dTLQ</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1-mTG7zinM-N2NXWfwdT5ew?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/107PQdx0vJqiuczm-YE86qw?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1RmogGZVzx5IrYtgmsce0Fw?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1UPqCQDEbLOLUoiCp7xmk7g?pwd=1234</t>
   </si>
 </sst>
 </file>
@@ -2087,11 +2147,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DEF4D4-4E25-4152-A14A-1BDA4BCCA7EF}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C22" sqref="C22"/>
+      <selection pane="topRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2164,10 +2224,163 @@
         <v>295</v>
       </c>
       <c r="D4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5">
+        <v>817650262</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D5" t="s">
         <v>140</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6">
+        <v>818030579</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7">
+        <v>818269188</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B8">
+        <v>818416822</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B9">
+        <v>818662472</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10">
+        <v>818878159</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D10" t="s">
+        <v>311</v>
+      </c>
+      <c r="E10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11">
+        <v>818970426</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D11" t="s">
+        <v>308</v>
+      </c>
+      <c r="E11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B12">
+        <v>819101845</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D12" t="s">
+        <v>309</v>
+      </c>
+      <c r="E12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B13">
+        <v>836226504</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D13" t="s">
+        <v>306</v>
+      </c>
+      <c r="E13" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2179,9 +2392,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6040E62-BEFF-4190-ADB8-4D63BAE776D8}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C42" sqref="C42"/>
+      <selection pane="topRight" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/minecraft.xlsx
+++ b/minecraft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-ipa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605EB9B9-F892-4645-BCE3-98A7472BF7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5440816-944A-46DF-BEF4-8730A3C61318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jailbroken 32" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="386">
   <si>
     <t>Version</t>
   </si>
@@ -882,9 +882,6 @@
     <t>0.16.2</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
     <t>1.0.1</t>
   </si>
   <si>
@@ -912,9 +909,6 @@
     <t>1.0.9</t>
   </si>
   <si>
-    <t>1.1.0</t>
-  </si>
-  <si>
     <t>iOS 8.0</t>
   </si>
   <si>
@@ -979,6 +973,219 @@
   </si>
   <si>
     <t>https://pan.baidu.com/s/1UPqCQDEbLOLUoiCp7xmk7g?pwd=1234</t>
+  </si>
+  <si>
+    <t>&lt;b id="1.0.0"&gt;1.0.0&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
+  </si>
+  <si>
+    <t>1.1.5</t>
+  </si>
+  <si>
+    <t>1.1.7</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1nfRMPcxL5T5wdJaqKTSXZw</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1-XW6uYxK8DPsjKqQJnLGHw</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1zO96h7xQaqclgA4JjiBFEg</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1VAznnBgJTw0sb6VQK0ANPw</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1D6OqXpfOiNWi8_P0FFg_dw</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1yZkppLHu-d5cvMQVf71QZA</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/16KNrmIZBPRS7lTUZE8BouA</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1alIv1WkhV60Ui8zU9umBdQ?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1sbqxdjB9nhWR5J1i3y3zWQ?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1eFHF0cb3rKQgjUozbjLMxQ?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1JX-jX5hwBBK3peIgjCLLbA?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1AnPFSrz7uxQo1_HBDnDAOw?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1WYSpmUBKoP31UUdQIbDhww?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1nJZFA8Dl_ypPIGOGbLi_gg?pwd=1234</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>1.2.5</t>
+  </si>
+  <si>
+    <t>1.2.6</t>
+  </si>
+  <si>
+    <t>1.2.7</t>
+  </si>
+  <si>
+    <t>1.2.8</t>
+  </si>
+  <si>
+    <t>1.2.9</t>
+  </si>
+  <si>
+    <t>1.2.10</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1zZwjC7MfZE-pW0N2AVyH4g</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1GqqK4qGVBmHL8rmHQmZd2g</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1yoNMGHo6OzspYih1SWvRYQ</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1Z4EUlkWKq3yGcluOboOUZQ</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1mnqGoTaPw2ooBtE1SZZcFw</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1Glj5WyugwwA2bBxwVnN6nw</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1tFe6lXutjiSOwLsmGFbpUg</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1iG7v6dQ7xWj0lzfymJgD-w</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1HttFSgwOeZkxEv9uNaHzFA</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1kCQYAXOEU8d6nLGxUUTwkA</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1rta5ZGY_tNR-J0TnxooLbA</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/18SpML3f-6IT9BiW3ywg1sQ?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1RLDlfwoU8_bQ7VOHSQquTg?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/19XQEucC1pHJlsKPzxfLS3Q?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1DiQQBhmXf7X1-E2dIG4r0g?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/14RMbFJobbjy8ograC3PIbA?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1gU7OLRnvl--FlU3wIHu17Q?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1gR5LLrPQuam5cFxjGmxAPQ?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1dN3azERClKIdAyseK3S2Hg?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1fqekcz1DGQLHUWkx2kCRLQ?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1BTml0HDdHn9hOGG9BCdG2w?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1-xIOPgRi6zJkDTx6F0kw7g?pwd=1234</t>
+  </si>
+  <si>
+    <t>&lt;b id="1.2.0"&gt;1.2.0&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b id="1.1.0"&gt;1.1.0&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>1.2.11</t>
+  </si>
+  <si>
+    <t>1.2.13</t>
+  </si>
+  <si>
+    <t>1.2.14</t>
+  </si>
+  <si>
+    <t>1.2.15</t>
+  </si>
+  <si>
+    <t>1.2.16</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/11qMIxgK9jlaF-N81CRGbmw</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1u8GBLE9n7Ag_0_DhoA5-sg</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/17QLErFRPEd1396efZtqIMw</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1XBuOJ3L5EWhwDcXlNBRYeA</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1lEURJJ4MQ-BaQfwqkh-F_A</t>
+  </si>
+  <si>
+    <t>https://1024terabox.com/s/1pEAAZxKNknUY5hWCDzU2Lg</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1SiF8MFnzhCQA2ObscBdFsA?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/119SSk32Be_GMa3Q-_kGLJg?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/12CPakIxezomowsWqeilOjQ?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1jZWq_aVqrV8r6uqH76-qjA?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1xzHwNnX8dvNbHozI5H0Eww?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/18JaEK4XbET0z-lJ35Za6Kg?pwd=1234</t>
   </si>
 </sst>
 </file>
@@ -1035,11 +1242,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2040,7 +2248,7 @@
         <v>817621338</v>
       </c>
       <c r="C42" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D42" t="s">
         <v>128</v>
@@ -2131,7 +2339,7 @@
         <v>817621338</v>
       </c>
       <c r="C4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D4" t="s">
         <v>134</v>
@@ -2149,7 +2357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DEF4D4-4E25-4152-A14A-1BDA4BCCA7EF}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E12" sqref="E12"/>
     </sheetView>
@@ -2221,13 +2429,13 @@
         <v>817621338</v>
       </c>
       <c r="C4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4" t="s">
         <v>295</v>
-      </c>
-      <c r="D4" t="s">
-        <v>298</v>
-      </c>
-      <c r="E4" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2238,7 +2446,7 @@
         <v>817650262</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D5" t="s">
         <v>140</v>
@@ -2255,13 +2463,13 @@
         <v>818030579</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2272,13 +2480,13 @@
         <v>818269188</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2289,13 +2497,13 @@
         <v>818416822</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2306,13 +2514,13 @@
         <v>818662472</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2323,13 +2531,13 @@
         <v>818878159</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2340,13 +2548,13 @@
         <v>818970426</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2357,30 +2565,30 @@
         <v>819101845</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B13">
         <v>836226504</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D13" t="s">
         <v>304</v>
       </c>
-      <c r="D13" t="s">
-        <v>306</v>
-      </c>
       <c r="E13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2390,15 +2598,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6040E62-BEFF-4190-ADB8-4D63BAE776D8}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51" bestFit="1" customWidth="1"/>
@@ -3076,7 +3285,7 @@
         <v>817031176</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D40" t="s">
         <v>220</v>
@@ -3093,7 +3302,7 @@
         <v>817260822</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D41" t="s">
         <v>222</v>
@@ -3110,7 +3319,7 @@
         <v>817621338</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D42" t="s">
         <v>224</v>
@@ -3127,7 +3336,7 @@
         <v>817650262</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D43" t="s">
         <v>226</v>
@@ -3144,7 +3353,7 @@
         <v>818030579</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D44" t="s">
         <v>228</v>
@@ -3161,7 +3370,7 @@
         <v>818269188</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D45" t="s">
         <v>230</v>
@@ -3178,7 +3387,7 @@
         <v>818416822</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D46" t="s">
         <v>232</v>
@@ -3195,7 +3404,7 @@
         <v>818662472</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D47" t="s">
         <v>234</v>
@@ -3212,7 +3421,7 @@
         <v>818878159</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D48" t="s">
         <v>236</v>
@@ -3229,7 +3438,7 @@
         <v>818970426</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D49" t="s">
         <v>238</v>
@@ -3246,7 +3455,7 @@
         <v>819101845</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D50" t="s">
         <v>240</v>
@@ -3263,7 +3472,7 @@
         <v>819299060</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D51" t="s">
         <v>242</v>
@@ -3280,7 +3489,7 @@
         <v>819347371</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D52" t="s">
         <v>244</v>
@@ -3297,7 +3506,7 @@
         <v>819581582</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D53" t="s">
         <v>246</v>
@@ -3314,7 +3523,7 @@
         <v>819769023</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D54" t="s">
         <v>248</v>
@@ -3325,13 +3534,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="B55">
         <v>819936072</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D55" t="s">
         <v>250</v>
@@ -3342,13 +3551,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B56">
         <v>820418889</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D56" t="s">
         <v>252</v>
@@ -3359,13 +3568,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B57">
         <v>820458571</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D57" t="s">
         <v>254</v>
@@ -3376,13 +3585,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B58">
         <v>820823760</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D58" t="s">
         <v>256</v>
@@ -3393,13 +3602,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B59">
         <v>821202098</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D59" t="s">
         <v>258</v>
@@ -3410,13 +3619,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B60">
         <v>821419615</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D60" t="s">
         <v>260</v>
@@ -3427,13 +3636,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B61">
         <v>821483675</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D61" t="s">
         <v>262</v>
@@ -3444,13 +3653,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B62">
         <v>821658757</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D62" t="s">
         <v>264</v>
@@ -3461,13 +3670,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B63">
         <v>821792989</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D63" t="s">
         <v>266</v>
@@ -3478,13 +3687,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B64">
         <v>821960382</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D64" t="s">
         <v>268</v>
@@ -3495,13 +3704,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B65">
         <v>822141552</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D65" t="s">
         <v>270</v>
@@ -3512,13 +3721,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>294</v>
+        <v>368</v>
       </c>
       <c r="B66">
         <v>822262458</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D66" t="s">
         <v>272</v>
@@ -3527,7 +3736,416 @@
         <v>273</v>
       </c>
     </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B67">
+        <v>822574311</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D67" t="s">
+        <v>322</v>
+      </c>
+      <c r="E67" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B68">
+        <v>822666630</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D68" t="s">
+        <v>323</v>
+      </c>
+      <c r="E68" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B69">
+        <v>822745341</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D69" t="s">
+        <v>325</v>
+      </c>
+      <c r="E69" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B70">
+        <v>822888465</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D70" t="s">
+        <v>324</v>
+      </c>
+      <c r="E70" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B71">
+        <v>823055413</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D71" t="s">
+        <v>326</v>
+      </c>
+      <c r="E71" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B72">
+        <v>823303383</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D72" t="s">
+        <v>327</v>
+      </c>
+      <c r="E72" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B73">
+        <v>823694618</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D73" t="s">
+        <v>328</v>
+      </c>
+      <c r="E73" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B74">
+        <v>823781063</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D74" t="s">
+        <v>345</v>
+      </c>
+      <c r="E74" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B75">
+        <v>823855149</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D75" t="s">
+        <v>346</v>
+      </c>
+      <c r="E75" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B76">
+        <v>823922771</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D76" t="s">
+        <v>347</v>
+      </c>
+      <c r="E76" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B77">
+        <v>824004498</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D77" t="s">
+        <v>348</v>
+      </c>
+      <c r="E77" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B78">
+        <v>824142703</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D78" t="s">
+        <v>349</v>
+      </c>
+      <c r="E78" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B79">
+        <v>824395888</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D79" t="s">
+        <v>350</v>
+      </c>
+      <c r="E79" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B80">
+        <v>825034595</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D80" t="s">
+        <v>351</v>
+      </c>
+      <c r="E80" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B81">
+        <v>825281021</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D81" t="s">
+        <v>352</v>
+      </c>
+      <c r="E81" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B82">
+        <v>825344228</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D82" t="s">
+        <v>353</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B83">
+        <v>825640498</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D83" t="s">
+        <v>354</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B84">
+        <v>825882136</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D84" t="s">
+        <v>355</v>
+      </c>
+      <c r="E84" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B85">
+        <v>826028575</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D85" t="s">
+        <v>374</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B86">
+        <v>826519310</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D86" t="s">
+        <v>375</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B87">
+        <v>826557432</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D87" t="s">
+        <v>376</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B88">
+        <v>826651152</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D88" t="s">
+        <v>377</v>
+      </c>
+      <c r="E88" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B89">
+        <v>826690570</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D89" t="s">
+        <v>378</v>
+      </c>
+      <c r="E89" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B90">
+        <v>826725833</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D90" t="s">
+        <v>379</v>
+      </c>
+      <c r="E90" t="s">
+        <v>380</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>